--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3455.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3455.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.798605058573843</v>
+        <v>1.190185546875</v>
       </c>
       <c r="B1">
-        <v>2.058120435918311</v>
+        <v>2.095541000366211</v>
       </c>
       <c r="C1">
-        <v>2.120180388695595</v>
+        <v>5.727797031402588</v>
       </c>
       <c r="D1">
-        <v>2.685714885870093</v>
+        <v>0.9269390106201172</v>
       </c>
       <c r="E1">
-        <v>4.115093957988726</v>
+        <v>1.104873418807983</v>
       </c>
     </row>
   </sheetData>
